--- a/BCD.xlsx
+++ b/BCD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Yoga\Desktop\SEMESTRE_I_2025\DISENO_LOGICO_GR1\PRACTICA\FIRST SIMULATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Yoga\Desktop\SEMESTRE_I_2025\DISENO_LOGICO_GR1\PROYECTOS\Proyecto2-AaronYSebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E21D33-F549-4E04-89FC-86365EE530EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E9439-432A-4CB3-B379-289844F1AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2930" yWindow="1300" windowWidth="14400" windowHeight="7270" xr2:uid="{DF6E09BE-B3C9-492C-8EB3-235636A35F87}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF6E09BE-B3C9-492C-8EB3-235636A35F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>a</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>4 bits number</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
   </si>
 </sst>
 </file>
@@ -174,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -183,40 +201,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -227,6 +233,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A3B888-09EB-4DE3-B409-37623F3A9A9C}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,78 +590,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="15"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
         <v>1</v>
       </c>
       <c r="H3" s="3">
@@ -648,7 +684,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="2">
@@ -663,45 +699,45 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="3">
@@ -724,7 +760,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
       <c r="C6" s="2">
@@ -739,31 +775,31 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="19"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
       <c r="C7" s="2">
@@ -778,30 +814,30 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="9">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
       <c r="C8" s="2">
@@ -816,31 +852,31 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="19"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13">
+        <v>1</v>
+      </c>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
+      <c r="B9" s="11">
         <v>6</v>
       </c>
       <c r="C9" s="2">
@@ -855,33 +891,33 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="7">
+      <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="2">
@@ -893,149 +929,342 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7">
+      <c r="A11" s="5"/>
+      <c r="B11" s="13">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="19"/>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13">
+        <v>1</v>
+      </c>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="B14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1</v>
+      </c>
+      <c r="J14" s="20">
+        <v>1</v>
+      </c>
+      <c r="K14" s="20">
+        <v>1</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1</v>
+      </c>
+      <c r="M14" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
+      <c r="B15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1</v>
+      </c>
+      <c r="L15" s="21">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="H16" s="21">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1</v>
+      </c>
+      <c r="K16" s="21">
+        <v>1</v>
+      </c>
+      <c r="L16" s="21">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
+        <v>1</v>
+      </c>
+      <c r="L18" s="25">
+        <v>1</v>
+      </c>
+      <c r="M18" s="25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C13:F13"/>
+  <mergeCells count="3">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:M1"/>
